--- a/biology/Histoire de la zoologie et de la botanique/Francis_Petter/Francis_Petter.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Francis_Petter/Francis_Petter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francis Petter, né le 28 juillet 1923 à Paris et mort le 21 janvier 2012 à Conches-sur-Gondoire[1],[2], est un zoologiste français, frère cadet de Jean-Jacques Petter.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francis Petter, né le 28 juillet 1923 à Paris et mort le 21 janvier 2012 à Conches-sur-Gondoire est un zoologiste français, frère cadet de Jean-Jacques Petter.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Passionné de nature, Francis Petter devient vétérinaire tout en complétant sa formation de naturaliste à l'université car depuis longtemps, il fréquente assidûment le Muséum national d'histoire naturelle et en particulier le laboratoire des Mammifères et Oiseaux. Il y est nommé en 1949 assistant pour s'occuper des collections de mammifères. Pendant toute sa carrière au Muséum, Francis Petter se consacre à l'enrichissement de la collection de mammalogie et à la diffusion des connaissances sur la nature, tout en dirigeant la revue Mammalia.
 Ainsi, il va impulser un élan déterminant à la collection mammalogique qui va s'accroître de plus 30 000 spécimens en 40 ans. Nommé sous-directeur en 1961, il constitue une équipe de mammalogistes avec laquelle il va s'intéresser à la faune de Madagascar et de Centrafrique, puis à celles du Brésil et de la Guyane. De plus en plus systématicien, il décrit de nouvelles espèces de rongeurs et devient la référence pour des taxons réputés difficiles.
@@ -547,14 +561,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publications grand public
-Francis Petter, Les mammifères, Volume no 1100 de la collection Que sais-je ?, Presses universitaires de France, Paris, 1963, 128 p.
+          <t>Publications grand public</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Francis Petter, Les mammifères, Volume no 1100 de la collection Que sais-je ?, Presses universitaires de France, Paris, 1963, 128 p.
 Francis Petter, Les animaux domestiques et leurs ancêtres, Bordas, Paris, 1973, 127 p.  (ISBN 2-04-007853-3)
-Dominique &amp; Francis Petter, Les Félins, Guide du jeune naturaliste, Delachaux et Niestlé, Lausanne, 1993, 78 p.  (ISBN 2-603-00907-9)
-Publications scientifiques
-Francis Petter a publié plus de 150 articles dans des revues scientifiques parmi lesquelles :
+Dominique &amp; Francis Petter, Les Félins, Guide du jeune naturaliste, Delachaux et Niestlé, Lausanne, 1993, 78 p.  (ISBN 2-603-00907-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Francis_Petter</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Petter</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications scientifiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francis Petter a publié plus de 150 articles dans des revues scientifiques parmi lesquelles :
 Francis Petter, Répartition géographique et écologique des rongeurs désertiques de la région paléarctique, Mammalia, Paris, 1962.
-Une liste plus complète est disponible dans l'article Hommage à Francis Petter[3].
+Une liste plus complète est disponible dans l'article Hommage à Francis Petter.
 </t>
         </is>
       </c>
